--- a/个人思考.xlsx
+++ b/个人思考.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7022A-0531-4987-8EDE-792794AC98CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9E0CE0-A0A2-4AF3-90F4-6ADCFB792145}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,6 +725,10 @@
   </si>
   <si>
     <t>等丛亭亭报销1734元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,7 +1347,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1883,6 +1887,11 @@
     <row r="22" spans="7:19">
       <c r="S22" s="21" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="7:19">
+      <c r="H28" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="7:19" ht="13.5" customHeight="1"/>
